--- a/4) Verification/Results/11.2 ValidationTesting_20190720.xlsx
+++ b/4) Verification/Results/11.2 ValidationTesting_20190720.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C8ABF-076A-406B-823D-9DCEFC3FEA21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="21720" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="21720" windowHeight="15600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VALIDATION TESTS" sheetId="1" r:id="rId1"/>
+    <sheet name="FIGURA 1" sheetId="2" r:id="rId2"/>
+    <sheet name="FIGURA 2" sheetId="3" r:id="rId3"/>
+    <sheet name="FIGURA 3" sheetId="5" r:id="rId4"/>
+    <sheet name="GRAFICA 1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>SE DEBE MEDIR LA VELOCIDAD DEL MOTOR MEDIANTE EL USO DE UN SENSOR DE EFECTO HALL ACOPLADO AL MOTOR, EL CUAL DA 4 PULSOS POR CADA VUELTA DEL MOTOR</t>
   </si>
@@ -46,18 +49,6 @@
     <t>EL TIEMPO DEFINIDO PARA LA ACCION DE CONTROL DEBE SER DE 100 ms</t>
   </si>
   <si>
-    <t>DURANTE LA INICIALIZACION SE DEBE CONSIDERAR LA CONFIGURACION DE LOS REGISTROS MOSTRADOS EN EL DOCUMENTO DE REQUISITOS DEL SISTEMA, PAGINA 9</t>
-  </si>
-  <si>
-    <t>EL SISTEMA DE CONSIDERAR LAS TAREAS DE PUERTOS, CONTROL, DIAGNOSTICOS, ACTUALIZACION DEL LCD, EEPROM.</t>
-  </si>
-  <si>
-    <t>LAS TAREAS DEBEN SER EJECUTADAS EN UN TIEMPO DENOMINADO CICLO DE OPERACIÓN TICS</t>
-  </si>
-  <si>
-    <t>LAS TAREAS DEBEN SER MONITOREADAS CON UNA RESOLUCION DE AL MENOS 10 VECES UN TIC</t>
-  </si>
-  <si>
     <t>SI EL THROUGHPUT ES MAYOR AL 70 % DEL USO DEL CPU, SE DEBERA REDISEÑAR EL CODIGO, DIVIDIENDO EL CODIGO</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
   </si>
   <si>
     <t>EL DISPLAY DEBE TENER CONTRASTE ADECUADO, BUENA ILUMINACION, USO DE TIPOGRAFIA LEGIBLE, UNA VELOCIDAD DE REFRESCADO ADECUADA PARA EVITAR VER "GLITCHES"</t>
-  </si>
-  <si>
-    <t>SE DEBE CONSIDERAR QUE EL DISEÑO DE CODIGO SEA MODULAR, REUTILIZABLE, MANTENIBLE, BASADO EN PRUEBAS</t>
   </si>
   <si>
     <t>SE DEBE CONTROLAR LA VELOCIDAD DE UN MOTOR DE CORRIENTE DIRECTA MEDIANTE UNA SEÑAL CUADRADA QUE VARIA EN SU ANCHO DE PULSO Y CUYA FRECUENCIA DE TRABAJO DEBE SER CONSTANTE.</t>
@@ -123,9 +111,6 @@
     <t>EL SISTEMA DEBE DETECTAR UN CORTO A TIERRA.</t>
   </si>
   <si>
-    <t>EL SISTEMA DEBE SER MONITOREADO POR UN WATCHDOG TIMER</t>
-  </si>
-  <si>
     <t>TEST ID</t>
   </si>
   <si>
@@ -204,12 +189,6 @@
     <t>MEDIR CON OSCILOSCOPIO EL TIEMPO DE DURACION DEL CICLO DE CONTROL</t>
   </si>
   <si>
-    <t>EL SISTEMA DEBE CONTAR CON UN SISTEMA DE CONTROL DE TIEMPO PARA HACER DETERMINÍSTICOS LOS PROCESOS DEL CÓDIGO.</t>
-  </si>
-  <si>
-    <t>EJECUTAR CON UNA FALLA EL SOFTWARE PARA PONER A FUNCIONAR EL WATCHDOG TIMER</t>
-  </si>
-  <si>
     <t>PROVOCAR UNA FALLA EN LA ALIMENTACION, POSTERIORMENTE VALIDAR QUE LOS DATOS HAYAN SIDO GUADADOS CORRECTAMENTE</t>
   </si>
   <si>
@@ -225,12 +204,6 @@
     <t>OBSERVAR FUNCIONAMIENTO DEL LCD</t>
   </si>
   <si>
-    <t>SE MIDIO UNA FRECUENCIA CONSTANTE DE 1 KHz</t>
-  </si>
-  <si>
-    <t>SE MIDIO LA FRECUENCIA DE TRABAJO A 1 KHz</t>
-  </si>
-  <si>
     <t>SE HIZO ROTAR LAS ASPAS DEL MOTOR Y SE VERIFICO QUE SE PRODUCEN 4 PULSOS POR CADA VUELTA DEL MOTOR</t>
   </si>
   <si>
@@ -240,12 +213,6 @@
     <t>MEDIR LA FUENTE DE ALIMENTACION CON MULTIMETRO</t>
   </si>
   <si>
-    <t>EL MOTOR REACCIONA A LOS CAMBIOS DE VELOCIDAD DE REFERENCIA DADOS POR EL POTENCIOMETRO</t>
-  </si>
-  <si>
-    <t>LOS VALORES DE LAS VARIABLES CALCULADAS EN EL SOFTWARE SON LAS MISMAS QUE LAS DESPLEGADAS EN LA PANTALLA</t>
-  </si>
-  <si>
     <t>SE OBSERVO QUE EL MAXIMO VALOR DEL POTENCIOMETRO CORRESPONDE A UN VALOR DE 3000 RPM</t>
   </si>
   <si>
@@ -258,32 +225,62 @@
     <t>DRIVER ADECUADO</t>
   </si>
   <si>
-    <t>RESULTADOS EN GRAFICA ANEXA</t>
-  </si>
-  <si>
-    <t>LA PANTALLA MUESTRA LA INFORMACION INDICADA EN LA PAGINA 8 DEL DOCUMENTO DE REQUISITOS, CON CAMBIOS VISUALES</t>
-  </si>
-  <si>
     <t>EL CONTROL TARDA EL TIEMPO ESPECIFICADO</t>
   </si>
   <si>
     <t>NO SE PROGRAMÓ UN MODULO DE MEMORIA</t>
   </si>
   <si>
-    <t>SE MIDIERON AMBOS THREADS DEL SISTEMA, Y SE ENCONTRO QUE EL LCD UTILIZA UN 17% DE THROUGHPUT, Y EL THREAD DE CONTROL USA 7%</t>
-  </si>
-  <si>
-    <t>TODAS LAS SUBRUTINAS DEL SOFTWARE ESTAN POR DEBAJO DE UNA CALIFICACION DE 19</t>
-  </si>
-  <si>
     <t>EL LCD MUESTRA LOS DATOS CON UNA VELOCIDAD DE REFRESCADO ADECUADA Y A BUEN CONTRASTE</t>
+  </si>
+  <si>
+    <t>SE MIDIO LA FRECUENCIA DE TRABAJO A 1  KHz</t>
+  </si>
+  <si>
+    <t>INDUCIR FALLA</t>
+  </si>
+  <si>
+    <t>NO SE ENCONTRÓ HARDWARE CON EL QUE IMPLEMENTAR LA FUNCIONALIDAD</t>
+  </si>
+  <si>
+    <t>SE COMPROBARON LOS ERRORES DEL MOTOR ATASCADO , LOS DEMAS NO FUERON PROGRAMADOS</t>
+  </si>
+  <si>
+    <t>RESULTADOS EN "GRAFICA 1" ANEXA</t>
+  </si>
+  <si>
+    <t>LOS VALORES DE LAS VARIABLES CALCULADAS EN EL SOFTWARE SON LAS MISMAS QUE LAS DESPLEGADAS EN LA PANTALLA, RESULTADOS VISIBLES EN EL VIDEO DE LA CARPETA &lt;PROJECT PATH&gt;\6) Results\Proyecto_Integrador.mp4, LOS DATOS QUE SE MANDAN AL LCD SON LOS DEL ARREGLO au16Send_DataToLCD</t>
+  </si>
+  <si>
+    <t>SE MIDIO UNA FRECUENCIA CONSTANTE DE 1  KHz, COMO SE OBSERVA EN LA "FIGURA 1"</t>
+  </si>
+  <si>
+    <t>EL MOTOR REACCIONA A LOS CAMBIOS DE VELOCIDAD DE REFERENCIA DADOS POR EL POTENCIOMETRO, RESULTADOS VISIBLES EN EL VIDEO DE LA CARPETA &lt;PROJECT PATH&gt;\6) Results\Proyecto_Integrador.mp4</t>
+  </si>
+  <si>
+    <t>LA PANTALLA MUESTRA LA INFORMACION INDICADA EN LA PAGINA 8 DEL DOCUMENTO DE REQUISITOS, CON CAMBIOS VISUALES, COMO SE MUESTRA EN LA "FIGURA 2"</t>
+  </si>
+  <si>
+    <t>SE MIDIERON AMBOS THREADS DEL SISTEMA, Y SE ENCONTRO QUE EL LCD UTILIZA UN 17% DE THROUGHPUT, COMO SE OBSERVA EN LA "FIGURA 3", Y EL THREAD DE CONTROL USA 7%</t>
+  </si>
+  <si>
+    <t>TODAS LAS SUBRUTINAS DEL SOFTWARE ESTAN POR DEBAJO DE UNA CALIFICACION DE 19, REVISADO EN LAS IMÁGENES DE LA DOCUMENTACION  &lt;PROJECT_PATH&gt;\4) Verification\ 10.3. CCRI_20190405.docx</t>
+  </si>
+  <si>
+    <t>MEDIR CON USO DEL OSCILOSCOPIO LOS PERIODOS EN LOS QUE LA SEÑAL SE DISCRETIZA Y SE MANTIENE CONSTANTE, DEBEN TENER UN PERIODO DE 100 ms</t>
+  </si>
+  <si>
+    <t>AL MEDIR LA SEÑAL DEL POTENCIOMETRO Y CAMBIAR EL ACERCAMIENTO DEL OSCILOSCOPIO SE OBSERVARON LOS CAMBIOS DISCRETIZADOS DEL VALOR DE VOLTAJE DEL POTENCIOMETRO</t>
+  </si>
+  <si>
+    <t>VALIDATION / FUNCTIONAL TESTING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +317,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,14 +354,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -370,20 +378,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -394,9 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,7 +417,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -424,6 +444,177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>759197</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>194247</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="4627" t="4024" r="2243" b="1696"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="759197" y="574862"/>
+          <a:ext cx="8579050" cy="5825938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742070</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742070" y="571499"/>
+          <a:ext cx="4858629" cy="6607735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256287</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="581025"/>
+          <a:ext cx="7104762" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>499326</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="571500"/>
+          <a:ext cx="5071326" cy="6508215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,162 +879,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="96.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.28515625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
+    <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>59</v>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>60</v>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -851,13 +1049,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -865,13 +1063,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -879,219 +1077,221 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
+      <c r="D24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/4) Verification/Results/11.2 ValidationTesting_20190720.xlsx
+++ b/4) Verification/Results/11.2 ValidationTesting_20190720.xlsx
@@ -11,7 +11,8 @@
     <sheet name="FIGURA 1" sheetId="2" r:id="rId2"/>
     <sheet name="FIGURA 2" sheetId="3" r:id="rId3"/>
     <sheet name="FIGURA 3" sheetId="5" r:id="rId4"/>
-    <sheet name="GRAFICA 1" sheetId="4" r:id="rId5"/>
+    <sheet name="FIGURA 4" sheetId="6" r:id="rId5"/>
+    <sheet name="GRAFICA 1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -231,9 +232,6 @@
     <t>NO SE PROGRAMÓ UN MODULO DE MEMORIA</t>
   </si>
   <si>
-    <t>EL LCD MUESTRA LOS DATOS CON UNA VELOCIDAD DE REFRESCADO ADECUADA Y A BUEN CONTRASTE</t>
-  </si>
-  <si>
     <t>SE MIDIO LA FRECUENCIA DE TRABAJO A 1  KHz</t>
   </si>
   <si>
@@ -249,9 +247,6 @@
     <t>RESULTADOS EN "GRAFICA 1" ANEXA</t>
   </si>
   <si>
-    <t>LOS VALORES DE LAS VARIABLES CALCULADAS EN EL SOFTWARE SON LAS MISMAS QUE LAS DESPLEGADAS EN LA PANTALLA, RESULTADOS VISIBLES EN EL VIDEO DE LA CARPETA &lt;PROJECT PATH&gt;\6) Results\Proyecto_Integrador.mp4, LOS DATOS QUE SE MANDAN AL LCD SON LOS DEL ARREGLO au16Send_DataToLCD</t>
-  </si>
-  <si>
     <t>SE MIDIO UNA FRECUENCIA CONSTANTE DE 1  KHz, COMO SE OBSERVA EN LA "FIGURA 1"</t>
   </si>
   <si>
@@ -274,6 +269,12 @@
   </si>
   <si>
     <t>VALIDATION / FUNCTIONAL TESTING</t>
+  </si>
+  <si>
+    <t>EL LCD MUESTRA LOS DATOS CON UNA VELOCIDAD DE REFRESCADO ADECUADA Y A BUEN CONTRASTE, COMO SE OBSERVA EN LA "FIGURA 4"</t>
+  </si>
+  <si>
+    <t>LOS VALORES DE LAS VARIABLES CALCULADAS EN EL SOFTWARE SON LAS MISMAS QUE LAS DESPLEGADAS EN LA PANTALLA, RESULTADOS VISIBLES EN LA "FIGURA 4" DE ESTE DOCUMENTO Y EN EL VIDEO DE LA CARPETA &lt;PROJECT PATH&gt;\6) Results\Proyecto_Integrador.mp4</t>
   </si>
 </sst>
 </file>
@@ -575,6 +576,49 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132763</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="581025"/>
+          <a:ext cx="4695238" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -883,7 +927,7 @@
   <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +943,7 @@
     <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -928,7 +972,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -942,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -984,11 +1028,11 @@
         <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -999,7 +1043,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1010,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1083,7 +1127,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1097,7 +1141,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1111,7 +1155,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1136,10 +1180,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1150,10 +1194,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1181,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1195,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -1210,7 +1254,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1224,7 +1268,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1286,6 +1330,21 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>

--- a/4) Verification/Results/11.2 ValidationTesting_20190720.xlsx
+++ b/4) Verification/Results/11.2 ValidationTesting_20190720.xlsx
@@ -232,9 +232,6 @@
     <t>NO SE PROGRAMÓ UN MODULO DE MEMORIA</t>
   </si>
   <si>
-    <t>SE MIDIO LA FRECUENCIA DE TRABAJO A 1  KHz</t>
-  </si>
-  <si>
     <t>INDUCIR FALLA</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>LA PANTALLA MUESTRA LA INFORMACION INDICADA EN LA PAGINA 8 DEL DOCUMENTO DE REQUISITOS, CON CAMBIOS VISUALES, COMO SE MUESTRA EN LA "FIGURA 2"</t>
   </si>
   <si>
-    <t>SE MIDIERON AMBOS THREADS DEL SISTEMA, Y SE ENCONTRO QUE EL LCD UTILIZA UN 17% DE THROUGHPUT, COMO SE OBSERVA EN LA "FIGURA 3", Y EL THREAD DE CONTROL USA 7%</t>
-  </si>
-  <si>
     <t>TODAS LAS SUBRUTINAS DEL SOFTWARE ESTAN POR DEBAJO DE UNA CALIFICACION DE 19, REVISADO EN LAS IMÁGENES DE LA DOCUMENTACION  &lt;PROJECT_PATH&gt;\4) Verification\ 10.3. CCRI_20190405.docx</t>
   </si>
   <si>
@@ -275,6 +269,12 @@
   </si>
   <si>
     <t>LOS VALORES DE LAS VARIABLES CALCULADAS EN EL SOFTWARE SON LAS MISMAS QUE LAS DESPLEGADAS EN LA PANTALLA, RESULTADOS VISIBLES EN LA "FIGURA 4" DE ESTE DOCUMENTO Y EN EL VIDEO DE LA CARPETA &lt;PROJECT PATH&gt;\6) Results\Proyecto_Integrador.mp4</t>
+  </si>
+  <si>
+    <t>SE MIDIERON AMBOS THREADS DEL SISTEMA, Y SE ENCONTRO QUE EL LCD UTILIZA UN 17% DE THROUGHPUT, COMO SE OBSERVA EN LA "FIGURA 3", Y EL THREAD DE CONTROL USA 7% "FIGURA 3.1"</t>
+  </si>
+  <si>
+    <t>SE MIDIO LA FRECUENCIA DE TRABAJO A 1 KHz</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="4627" t="4024" r="2243" b="1696"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -512,7 +518,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -555,7 +567,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -564,6 +582,50 @@
         <a:xfrm>
           <a:off x="771525" y="581025"/>
           <a:ext cx="7104762" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571681</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="571500"/>
+          <a:ext cx="8429806" cy="5362575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,7 +660,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -641,7 +709,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -927,7 +1001,7 @@
   <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +1017,7 @@
     <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -972,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -986,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1028,7 +1102,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -1043,7 +1117,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1054,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1127,7 +1201,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1141,7 +1215,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1155,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1180,10 +1254,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1194,10 +1268,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1214,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1225,7 +1299,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1239,7 +1313,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -1254,7 +1328,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1268,7 +1342,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1389,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
